--- a/exp/Summary.xlsx
+++ b/exp/Summary.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAF1C73-3192-364E-A2C7-F7BBDFD89B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB8542-F5FE-0B4F-9238-4C3737250521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{6D060FB0-B77F-4148-8632-0D17480C4F75}"/>
+    <workbookView xWindow="43000" yWindow="-680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{6D060FB0-B77F-4148-8632-0D17480C4F75}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCNvsHyperGCN" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Dataset</t>
   </si>
@@ -72,6 +73,15 @@
   </si>
   <si>
     <t>Baselines</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>lastfm</t>
+  </si>
+  <si>
+    <t>ncdg</t>
   </si>
 </sst>
 </file>
@@ -145,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,30 +166,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -518,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D7201-C2EC-B442-B3ED-FA2F85AC2C45}">
   <dimension ref="D11:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,24 +541,24 @@
   </cols>
   <sheetData>
     <row r="11" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="2" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="4:15" ht="22" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
@@ -576,263 +589,279 @@
       </c>
     </row>
     <row r="13" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D13" s="4">
+      <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
+      <c r="F13" s="5">
+        <v>0.249</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="H13" s="4">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>2.98E-2</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D14" s="4"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="6">
         <v>3.27E-2</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="7">
         <f>(L14-L13)/L13</f>
         <v>8.0729166666666824E-2</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="7">
         <f>(M14-M13)/M13</f>
         <v>9.7315436241610737E-2</v>
       </c>
     </row>
     <row r="15" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D15" s="4">
+      <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="F15" s="4">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.39650000000000002</v>
+      </c>
+      <c r="H15" s="4">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>5.04E-2</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <v>3.15E-2</v>
       </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D16" s="4"/>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <f>(H16-H15)/H15</f>
         <v>1.125401929260449E-2</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <f>(I16-I15)/I15</f>
         <v>1.9841269841269858E-2</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7">
         <f>(M16-M15)/M15</f>
         <v>0.12380952380952383</v>
       </c>
     </row>
     <row r="17" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D17" s="4">
+      <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
+      <c r="F17" s="4">
+        <v>0.2646</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="H17" s="4">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6">
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D18" s="4"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <f>(H18-H17)/H17</f>
         <v>1.2519561815336387E-2</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <f>(I18-I17)/I17</f>
         <v>1.3333333333333319E-2</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7">
         <f>(M18-M17)/M17</f>
         <v>0.12893081761006286</v>
       </c>
     </row>
     <row r="19" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D19" s="4">
+      <c r="D19" s="11">
         <v>4</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
+      <c r="F19" s="4">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="H19" s="4">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="5">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="5">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="4">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D20" s="4"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <f>(H20-H19)/H19</f>
         <v>1.232665639445293E-2</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="7">
         <f>(I20-I19)/I19</f>
         <v>1.6981132075471791E-2</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>4.53E-2</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <v>3.61E-2</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="7">
         <f>(L20-L19)/L19</f>
         <v>0.11576354679802964</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="7">
         <f>(M20-M19)/M19</f>
         <v>0.15335463258785936</v>
       </c>
     </row>
     <row r="25" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="27" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D27" s="10"/>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2" t="s">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="4:15" ht="22" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
@@ -858,12 +887,12 @@
         <v>4</v>
       </c>
       <c r="L28" s="3"/>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D29" s="4"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
@@ -875,7 +904,7 @@
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D30" s="4"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
@@ -887,7 +916,7 @@
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D31" s="4"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
@@ -899,19 +928,19 @@
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D32" s="4"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="4"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="4"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="4"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="4"/>
+      <c r="D36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -920,11 +949,6 @@
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="J27:K27"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -932,7 +956,88 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32849974-0755-E84D-A91D-9157C6D4F3EF}">
+  <dimension ref="G9:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="9" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.16869999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0.17960000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>0.18690000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0.18729999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>0.18340000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>3.3399999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exp/Summary.xlsx
+++ b/exp/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB8542-F5FE-0B4F-9238-4C3737250521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB47A6-3FB0-B945-8985-F0524E4A977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43000" yWindow="-680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{6D060FB0-B77F-4148-8632-0D17480C4F75}"/>
+    <workbookView xWindow="43000" yWindow="-680" windowWidth="28040" windowHeight="17440" xr2:uid="{6D060FB0-B77F-4148-8632-0D17480C4F75}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCNvsHyperGCN" sheetId="1" r:id="rId1"/>
@@ -182,17 +182,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D7201-C2EC-B442-B3ED-FA2F85AC2C45}">
   <dimension ref="D11:O36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,24 +541,24 @@
   </cols>
   <sheetData>
     <row r="11" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="12"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="4:15" ht="22" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
@@ -833,35 +833,35 @@
       </c>
     </row>
     <row r="25" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="27" spans="4:15" ht="22" x14ac:dyDescent="0.3">
       <c r="D27" s="8"/>
       <c r="E27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10" t="s">
+      <c r="I27" s="12"/>
+      <c r="J27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
     <row r="28" spans="4:15" ht="22" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
@@ -944,11 +944,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="J27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
@@ -961,6 +956,11 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="J27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -970,22 +970,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32849974-0755-E84D-A91D-9157C6D4F3EF}">
   <dimension ref="G9:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="9" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="10" t="s">
         <v>14</v>
       </c>
     </row>

--- a/exp/Summary.xlsx
+++ b/exp/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AB47A6-3FB0-B945-8985-F0524E4A977C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA73284C-737B-ED4C-9D8F-3D2E89BAED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43000" yWindow="-680" windowWidth="28040" windowHeight="17440" xr2:uid="{6D060FB0-B77F-4148-8632-0D17480C4F75}"/>
+    <workbookView xWindow="5020" yWindow="3480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{6D060FB0-B77F-4148-8632-0D17480C4F75}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCNvsHyperGCN" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="19">
   <si>
     <t>Dataset</t>
   </si>
@@ -75,13 +75,25 @@
     <t>Baselines</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>lastfm</t>
-  </si>
-  <si>
-    <t>ncdg</t>
+    <t>%+</t>
+  </si>
+  <si>
+    <t>Mult-VAE</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>NCDG</t>
+  </si>
+  <si>
+    <t>hyperGCN</t>
+  </si>
+  <si>
+    <t>%Improv</t>
+  </si>
+  <si>
+    <t>DNN+SSL</t>
   </si>
 </sst>
 </file>
@@ -92,7 +104,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +133,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -142,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,12 +168,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,33 +225,69 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -529,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D7201-C2EC-B442-B3ED-FA2F85AC2C45}">
-  <dimension ref="D11:O36"/>
+  <dimension ref="D11:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -540,330 +635,370 @@
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D11" s="12" t="s">
+    <row r="11" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="12" t="s">
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D12" s="3" t="s">
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="4:17" ht="22" x14ac:dyDescent="0.2">
+      <c r="D12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="K12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="O12" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="4:15" ht="22" x14ac:dyDescent="0.2">
+      <c r="P12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="15">
         <v>0.249</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="13">
         <v>0.37669999999999998</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="13">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4">
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="13">
         <v>2.98E-2</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="4:15" ht="22" x14ac:dyDescent="0.2">
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D14" s="11"/>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="M14" s="6">
+      <c r="O14" s="14">
         <v>3.27E-2</v>
       </c>
-      <c r="N14" s="7">
-        <f>(L14-L13)/L13</f>
+      <c r="P14" s="16">
+        <f>(N14-N13)/N13</f>
         <v>8.0729166666666824E-2</v>
       </c>
-      <c r="O14" s="7">
-        <f>(M14-M13)/M13</f>
+      <c r="Q14" s="16">
+        <f>(O14-O13)/O13</f>
         <v>9.7315436241610737E-2</v>
       </c>
     </row>
-    <row r="15" spans="4:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D15" s="11">
         <v>2</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="13">
         <v>0.26090000000000002</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="13">
         <v>0.39650000000000002</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="13">
         <v>5.04E-2</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4">
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="13">
         <v>3.15E-2</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="4:15" ht="22" x14ac:dyDescent="0.2">
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D16" s="11"/>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="K16" s="14">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="J16" s="7">
-        <f>(H16-H15)/H15</f>
+      <c r="L16" s="16">
+        <f>(J16-J15)/J15</f>
         <v>1.125401929260449E-2</v>
       </c>
-      <c r="K16" s="7">
-        <f>(I16-I15)/I15</f>
+      <c r="M16" s="16">
+        <f>(K16-K15)/K15</f>
         <v>1.9841269841269858E-2</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6">
+      <c r="N16" s="14"/>
+      <c r="O16" s="14">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7">
-        <f>(M16-M15)/M15</f>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16">
+        <f>(O16-O15)/O15</f>
         <v>0.12380952380952383</v>
       </c>
     </row>
-    <row r="17" spans="4:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D17" s="11">
         <v>3</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="13">
         <v>0.2646</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="13">
         <v>0.40279999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="K17" s="13">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5">
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="15">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="13">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="4:15" ht="22" x14ac:dyDescent="0.2">
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D18" s="11"/>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="I18" s="6">
+      <c r="K18" s="14">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="J18" s="7">
-        <f>(H18-H17)/H17</f>
+      <c r="L18" s="16">
+        <f>(J18-J17)/J17</f>
         <v>1.2519561815336387E-2</v>
       </c>
-      <c r="K18" s="7">
-        <f>(I18-I17)/I17</f>
+      <c r="M18" s="16">
+        <f>(K18-K17)/K17</f>
         <v>1.3333333333333319E-2</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6">
+      <c r="N18" s="14"/>
+      <c r="O18" s="14">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7">
-        <f>(M18-M17)/M17</f>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16">
+        <f>(O18-O17)/O17</f>
         <v>0.12893081761006286</v>
       </c>
     </row>
-    <row r="19" spans="4:15" ht="22" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D19" s="11">
         <v>4</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="13">
         <v>0.25469999999999998</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="15">
         <v>0.39</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="13">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="I19" s="5">
+      <c r="K19" s="15">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="4">
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="13">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="13">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="4:15" ht="22" x14ac:dyDescent="0.2">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D20" s="11"/>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="I20" s="6">
+      <c r="K20" s="14">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="J20" s="7">
-        <f>(H20-H19)/H19</f>
+      <c r="L20" s="16">
+        <f>(J20-J19)/J19</f>
         <v>1.232665639445293E-2</v>
       </c>
-      <c r="K20" s="7">
-        <f>(I20-I19)/I19</f>
+      <c r="M20" s="16">
+        <f>(K20-K19)/K19</f>
         <v>1.6981132075471791E-2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="N20" s="14">
         <v>4.53E-2</v>
       </c>
-      <c r="M20" s="6">
+      <c r="O20" s="14">
         <v>3.61E-2</v>
       </c>
-      <c r="N20" s="7">
-        <f>(L20-L19)/L19</f>
+      <c r="P20" s="16">
+        <f>(N20-N19)/N19</f>
         <v>0.11576354679802964</v>
       </c>
-      <c r="O20" s="7">
-        <f>(M20-M19)/M19</f>
+      <c r="Q20" s="16">
+        <f>(O20-O19)/O19</f>
         <v>0.15335463258785936</v>
       </c>
     </row>
-    <row r="25" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="E25" s="13" t="s">
+    <row r="25" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="27" spans="4:15" ht="22" x14ac:dyDescent="0.3">
-      <c r="D27" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="27" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12" t="s">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" spans="4:15" ht="22" x14ac:dyDescent="0.2">
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
         <v>1</v>
@@ -874,25 +1009,27 @@
       <c r="G28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="9" t="s">
+      <c r="L28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D29" s="11"/>
+    <row r="29" spans="4:17" ht="22" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
@@ -902,9 +1039,11 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D30" s="11"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="4:17" ht="22" x14ac:dyDescent="0.2">
+      <c r="D30" s="7"/>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
@@ -914,9 +1053,11 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="4:15" ht="22" x14ac:dyDescent="0.2">
-      <c r="D31" s="11"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="4:17" ht="22" x14ac:dyDescent="0.2">
+      <c r="D31" s="7"/>
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
@@ -926,41 +1067,43 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D32" s="11"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="11"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="11"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="11"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="11"/>
+      <c r="D36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E25:M25"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F27:G27"/>
     <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="N11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -968,76 +1111,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32849974-0755-E84D-A91D-9157C6D4F3EF}">
-  <dimension ref="G9:H18"/>
+  <dimension ref="E7:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="9" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="H9" s="10" t="s">
+    <row r="7" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="5:9" ht="22" x14ac:dyDescent="0.2">
+      <c r="E8" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" ht="22" x14ac:dyDescent="0.2">
+      <c r="E9" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5.79E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>3.44E-2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="22" x14ac:dyDescent="0.2">
+      <c r="E10" s="25" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0.16869999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>0.17960000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>0.18690000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>0.18729999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>0.18340000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18">
-        <v>10</v>
-      </c>
-      <c r="H18">
-        <v>3.3399999999999999E-2</v>
+      <c r="F10" s="10">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="G10" s="21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H10" s="10">
+        <v>4.07E-2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" ht="22" x14ac:dyDescent="0.2">
+      <c r="E11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="I11" s="10">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" ht="22" x14ac:dyDescent="0.2">
+      <c r="E12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" ht="22" x14ac:dyDescent="0.2">
+      <c r="E13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4.53E-2</v>
+      </c>
+      <c r="I13" s="10">
+        <v>3.61E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" ht="22" x14ac:dyDescent="0.2">
+      <c r="E14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="10">
+        <f>F13-F11</f>
+        <v>1.7399999999999992E-2</v>
+      </c>
+      <c r="G14" s="10">
+        <f>G13-G11</f>
+        <v>1.5700000000000006E-2</v>
+      </c>
+      <c r="H14" s="10">
+        <f>H13-H11</f>
+        <v>1.5000000000000013E-3</v>
+      </c>
+      <c r="I14" s="10">
+        <f>I13-I11</f>
+        <v>2.3999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" ht="22" x14ac:dyDescent="0.2">
+      <c r="E15" s="24"/>
+      <c r="F15" s="22">
+        <f>F14/F11</f>
+        <v>0.36024844720496874</v>
+      </c>
+      <c r="G15" s="22">
+        <f>G14/G11</f>
+        <v>0.41099476439790594</v>
+      </c>
+      <c r="H15" s="22">
+        <f>H14/H11</f>
+        <v>3.4246575342465786E-2</v>
+      </c>
+      <c r="I15" s="22">
+        <f>I14/I11</f>
+        <v>7.1216617210682467E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/exp/Summary.xlsx
+++ b/exp/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA73284C-737B-ED4C-9D8F-3D2E89BAED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6012A6-8D65-894F-8B15-438444124A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="3480" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{6D060FB0-B77F-4148-8632-0D17480C4F75}"/>
+    <workbookView xWindow="5020" yWindow="3480" windowWidth="28040" windowHeight="17440" xr2:uid="{6D060FB0-B77F-4148-8632-0D17480C4F75}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCNvsHyperGCN" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,64 +229,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01D7201-C2EC-B442-B3ED-FA2F85AC2C45}">
   <dimension ref="D11:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20:O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,367 +639,367 @@
   </cols>
   <sheetData>
     <row r="11" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D13" s="11">
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="10">
         <v>0.249</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="8">
         <v>0.37669999999999998</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="8">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="8">
         <v>2.98E-2</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D14" s="11"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="9">
         <v>3.27E-2</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="11">
         <f>(N14-N13)/N13</f>
         <v>8.0729166666666824E-2</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="11">
         <f>(O14-O13)/O13</f>
         <v>9.7315436241610737E-2</v>
       </c>
     </row>
     <row r="15" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D15" s="11">
+      <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="8">
         <v>0.26090000000000002</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="8">
         <v>0.39650000000000002</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13">
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="8">
         <v>5.04E-2</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13">
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="8">
         <v>3.15E-2</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
     <row r="16" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D16" s="11"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="9">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="11">
         <f>(J16-J15)/J15</f>
         <v>1.125401929260449E-2</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="11">
         <f>(K16-K15)/K15</f>
         <v>1.9841269841269858E-2</v>
       </c>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14">
+      <c r="N16" s="9"/>
+      <c r="O16" s="9">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16">
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11">
         <f>(O16-O15)/O15</f>
         <v>0.12380952380952383</v>
       </c>
     </row>
     <row r="17" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D17" s="11">
+      <c r="D17" s="21">
         <v>3</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="8">
         <v>0.2646</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="8">
         <v>0.40279999999999999</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="8">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="15">
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="10">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="8">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D18" s="11"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="9">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="11">
         <f>(J18-J17)/J17</f>
         <v>1.2519561815336387E-2</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="11">
         <f>(K18-K17)/K17</f>
         <v>1.3333333333333319E-2</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14">
+      <c r="N18" s="9"/>
+      <c r="O18" s="9">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16">
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11">
         <f>(O18-O17)/O17</f>
         <v>0.12893081761006286</v>
       </c>
     </row>
     <row r="19" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D19" s="11">
+      <c r="D19" s="21">
         <v>4</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="8">
         <v>0.25469999999999998</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="10">
         <v>0.39</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="13">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="8">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="10">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="13">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="8">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="8">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D20" s="11"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="K20" s="14">
-        <v>5.3900000000000003E-2</v>
-      </c>
-      <c r="L20" s="16">
+      <c r="K20" s="26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L20" s="11">
         <f>(J20-J19)/J19</f>
         <v>1.232665639445293E-2</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="11">
         <f>(K20-K19)/K19</f>
-        <v>1.6981132075471791E-2</v>
-      </c>
-      <c r="N20" s="14">
+        <v>1.8867924528301903E-2</v>
+      </c>
+      <c r="N20" s="9">
         <v>4.53E-2</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="9">
         <v>3.61E-2</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="11">
         <f>(N20-N19)/N19</f>
         <v>0.11576354679802964</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="11">
         <f>(O20-O19)/O19</f>
         <v>0.15335463258785936</v>
       </c>
     </row>
     <row r="25" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="27" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="19"/>
+      <c r="L27" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="4:17" ht="22" x14ac:dyDescent="0.2">
       <c r="D28" s="3"/>
@@ -1029,7 +1032,7 @@
       </c>
     </row>
     <row r="29" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D29" s="7"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1046,7 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D30" s="7"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="3" t="s">
         <v>9</v>
       </c>
@@ -1057,7 +1060,7 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="4:17" ht="22" x14ac:dyDescent="0.2">
-      <c r="D31" s="7"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
@@ -1071,27 +1074,22 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="D32" s="7"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="7"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="7"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="7"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="7"/>
+      <c r="D36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:D14"/>
@@ -1104,6 +1102,11 @@
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="L27:M27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1113,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32849974-0755-E84D-A91D-9157C6D4F3EF}">
   <dimension ref="E7:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1123,117 +1126,117 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="5:9" ht="22" x14ac:dyDescent="0.2">
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="5:9" ht="22" x14ac:dyDescent="0.2">
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>5.79E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <v>3.44E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>2.63E-2</v>
       </c>
     </row>
     <row r="10" spans="5:9" ht="22" x14ac:dyDescent="0.2">
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="15">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="6">
         <v>4.07E-2</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="6">
         <v>3.15E-2</v>
       </c>
     </row>
     <row r="11" spans="5:9" ht="22" x14ac:dyDescent="0.2">
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="6">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="6">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="6">
         <v>3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="5:9" ht="22" x14ac:dyDescent="0.2">
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="6">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="6">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="6">
         <v>3.15E-2</v>
       </c>
     </row>
     <row r="13" spans="5:9" ht="22" x14ac:dyDescent="0.2">
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="6">
         <v>4.53E-2</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="6">
         <v>3.61E-2</v>
       </c>
     </row>
@@ -1241,38 +1244,38 @@
       <c r="E14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <f>F13-F11</f>
         <v>1.7399999999999992E-2</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="6">
         <f>G13-G11</f>
         <v>1.5700000000000006E-2</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="6">
         <f>H13-H11</f>
         <v>1.5000000000000013E-3</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="6">
         <f>I13-I11</f>
         <v>2.3999999999999994E-3</v>
       </c>
     </row>
     <row r="15" spans="5:9" ht="22" x14ac:dyDescent="0.2">
       <c r="E15" s="24"/>
-      <c r="F15" s="22">
+      <c r="F15" s="16">
         <f>F14/F11</f>
         <v>0.36024844720496874</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="16">
         <f>G14/G11</f>
         <v>0.41099476439790594</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="16">
         <f>H14/H11</f>
         <v>3.4246575342465786E-2</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="16">
         <f>I14/I11</f>
         <v>7.1216617210682467E-2</v>
       </c>
